--- a/data/Repair_matrix DF.xlsx
+++ b/data/Repair_matrix DF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twintern\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\twintern\Auto Purchase\AutoPurchase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C361B3-B018-4759-B55D-A77329C1EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77109753-9EE4-49CB-862B-275C24D10BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="249">
   <si>
     <t>Module part</t>
   </si>
@@ -763,10 +763,6 @@
   </si>
   <si>
     <t>E-10004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V-700144</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1694,7 +1690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2375,10 +2371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3093,8 +3085,8 @@
   </sheetPr>
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3149,13 +3141,13 @@
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="30"/>
       <c r="H2" s="24"/>
       <c r="I2" s="27"/>
@@ -3324,7 +3316,9 @@
       <c r="B11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="261"/>
+      <c r="C11" s="265" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="41" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3341,7 @@
       <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="262"/>
+      <c r="C12" s="261"/>
       <c r="D12" s="46"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
@@ -3367,7 +3361,7 @@
       <c r="B13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="271"/>
+      <c r="C13" s="270"/>
       <c r="D13" s="50">
         <f>'Calc.'!H6</f>
         <v>798.12200000000007</v>
@@ -3393,7 +3387,7 @@
       <c r="B14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="263"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
@@ -3413,7 +3407,7 @@
       <c r="B15" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="263"/>
+      <c r="C15" s="262"/>
       <c r="D15" s="50">
         <f>'Calc.'!H17</f>
         <v>6967.2220000000007</v>
@@ -3441,7 +3435,7 @@
       <c r="B16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="264"/>
+      <c r="C16" s="263"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
@@ -3459,7 +3453,7 @@
       <c r="B17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="263"/>
+      <c r="C17" s="262"/>
       <c r="D17" s="50">
         <f>'Calc.'!H31</f>
         <v>2739.2059999999992</v>
@@ -3481,7 +3475,7 @@
     <row r="18" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="57"/>
-      <c r="C18" s="265"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="F18" s="61">
@@ -3520,7 +3514,7 @@
       <c r="B20" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="266" t="s">
+      <c r="C20" s="265" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="64"/>
@@ -3544,8 +3538,8 @@
       <c r="B21" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="272" t="s">
-        <v>246</v>
+      <c r="C21" s="271" t="s">
+        <v>245</v>
       </c>
       <c r="D21" s="68">
         <f>'Calc.'!H42</f>
@@ -3570,8 +3564,8 @@
       <c r="B22" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="272" t="s">
-        <v>247</v>
+      <c r="C22" s="271" t="s">
+        <v>246</v>
       </c>
       <c r="D22" s="68">
         <f>'Calc.'!H47</f>
@@ -3596,7 +3590,7 @@
     <row r="23" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="58"/>
-      <c r="C23" s="265"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="59"/>
       <c r="E23" s="72"/>
       <c r="F23" s="73">
@@ -3615,7 +3609,7 @@
     <row r="24" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="74"/>
-      <c r="C24" s="267"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="68"/>
       <c r="E24" s="24"/>
       <c r="F24" s="75"/>
@@ -3651,7 +3645,7 @@
       <c r="B26" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="266"/>
+      <c r="C26" s="265"/>
       <c r="D26" s="64" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3669,7 @@
       <c r="B27" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="263"/>
       <c r="D27" s="53"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -3695,7 +3689,7 @@
       <c r="B28" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="272" t="s">
+      <c r="C28" s="271" t="s">
         <v>237</v>
       </c>
       <c r="D28" s="68">
@@ -3721,8 +3715,8 @@
       <c r="B29" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="272" t="s">
-        <v>238</v>
+      <c r="C29" s="271" t="s">
+        <v>248</v>
       </c>
       <c r="D29" s="68">
         <f>'Calc.'!I61</f>
@@ -3747,8 +3741,8 @@
       <c r="B30" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="272" t="s">
-        <v>239</v>
+      <c r="C30" s="271" t="s">
+        <v>238</v>
       </c>
       <c r="D30" s="68">
         <f>'Calc.'!I62</f>
@@ -3773,8 +3767,8 @@
       <c r="B31" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="272" t="s">
-        <v>240</v>
+      <c r="C31" s="271" t="s">
+        <v>239</v>
       </c>
       <c r="D31" s="68">
         <f>'Calc.'!I63</f>
@@ -3799,8 +3793,8 @@
       <c r="B32" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="272" t="s">
-        <v>241</v>
+      <c r="C32" s="271" t="s">
+        <v>240</v>
       </c>
       <c r="D32" s="68">
         <f>'Calc.'!I64</f>
@@ -3825,7 +3819,7 @@
       <c r="B33" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="272">
+      <c r="C33" s="271">
         <v>602391</v>
       </c>
       <c r="D33" s="68">
@@ -3851,8 +3845,8 @@
       <c r="B34" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="272" t="s">
-        <v>242</v>
+      <c r="C34" s="271" t="s">
+        <v>241</v>
       </c>
       <c r="D34" s="68">
         <f>'Calc.'!I66</f>
@@ -3877,8 +3871,8 @@
       <c r="B35" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="272" t="s">
-        <v>243</v>
+      <c r="C35" s="271" t="s">
+        <v>242</v>
       </c>
       <c r="D35" s="68">
         <f>'Calc.'!I67</f>
@@ -3903,8 +3897,8 @@
       <c r="B36" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="274" t="s">
-        <v>249</v>
+      <c r="C36" s="273" t="s">
+        <v>248</v>
       </c>
       <c r="D36" s="68">
         <f>'Calc.'!I68</f>
@@ -3929,8 +3923,8 @@
       <c r="B37" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="272" t="s">
-        <v>244</v>
+      <c r="C37" s="271" t="s">
+        <v>243</v>
       </c>
       <c r="D37" s="68">
         <f>'Calc.'!I69</f>
@@ -3955,8 +3949,8 @@
       <c r="B38" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="272" t="s">
-        <v>245</v>
+      <c r="C38" s="271" t="s">
+        <v>244</v>
       </c>
       <c r="D38" s="68">
         <f>'Calc.'!I70</f>
@@ -3979,7 +3973,7 @@
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="74"/>
-      <c r="C39" s="267"/>
+      <c r="C39" s="266"/>
       <c r="D39" s="68"/>
       <c r="E39" s="87"/>
       <c r="F39" s="75"/>
@@ -3997,7 +3991,7 @@
       <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="264"/>
+      <c r="C40" s="263"/>
       <c r="D40" s="53"/>
       <c r="E40" s="54"/>
       <c r="F40" s="55"/>
@@ -4017,7 +4011,7 @@
       <c r="B41" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="272">
+      <c r="C41" s="271">
         <v>400370</v>
       </c>
       <c r="D41" s="68">
@@ -4043,7 +4037,7 @@
       <c r="B42" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="272">
+      <c r="C42" s="271">
         <v>604303</v>
       </c>
       <c r="D42" s="68">
@@ -4069,7 +4063,7 @@
       <c r="B43" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="272">
+      <c r="C43" s="271">
         <v>604336</v>
       </c>
       <c r="D43" s="142">
@@ -4095,7 +4089,7 @@
       <c r="B44" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="272">
+      <c r="C44" s="271">
         <v>400392</v>
       </c>
       <c r="D44" s="142">
@@ -4121,7 +4115,7 @@
       <c r="B45" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="272">
+      <c r="C45" s="271">
         <v>610854</v>
       </c>
       <c r="D45" s="142">
@@ -4147,8 +4141,8 @@
       <c r="B46" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="273" t="s">
-        <v>249</v>
+      <c r="C46" s="272" t="s">
+        <v>248</v>
       </c>
       <c r="D46" s="142">
         <f>'Calc.'!G108</f>
@@ -4171,7 +4165,7 @@
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="74"/>
-      <c r="C47" s="267"/>
+      <c r="C47" s="266"/>
       <c r="D47" s="68"/>
       <c r="E47" s="87"/>
       <c r="F47" s="75"/>
@@ -4189,7 +4183,7 @@
       <c r="B48" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="264"/>
+      <c r="C48" s="263"/>
       <c r="D48" s="53"/>
       <c r="E48" s="54"/>
       <c r="F48" s="55"/>
@@ -4207,7 +4201,7 @@
       <c r="B49" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="272">
+      <c r="C49" s="271">
         <v>900119</v>
       </c>
       <c r="D49" s="68">
@@ -4233,8 +4227,8 @@
       <c r="B50" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="272" t="s">
-        <v>248</v>
+      <c r="C50" s="271" t="s">
+        <v>247</v>
       </c>
       <c r="D50" s="68">
         <f>'Calc.'!I89</f>
@@ -4259,7 +4253,7 @@
       <c r="B51" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="272">
+      <c r="C51" s="271">
         <v>610906</v>
       </c>
       <c r="D51" s="68">
@@ -4285,7 +4279,7 @@
       <c r="B52" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="275">
+      <c r="C52" s="274">
         <v>602574</v>
       </c>
       <c r="D52" s="68">
@@ -4309,7 +4303,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="74"/>
-      <c r="C53" s="267"/>
+      <c r="C53" s="266"/>
       <c r="D53" s="68"/>
       <c r="E53" s="87"/>
       <c r="F53" s="75"/>
@@ -4325,7 +4319,7 @@
     <row r="54" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="57"/>
-      <c r="C54" s="265"/>
+      <c r="C54" s="264"/>
       <c r="D54" s="59"/>
       <c r="E54" s="72"/>
       <c r="F54" s="61">
@@ -4364,7 +4358,7 @@
       <c r="B56" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="266"/>
+      <c r="C56" s="265"/>
       <c r="D56" s="64" t="s">
         <v>1</v>
       </c>
@@ -4384,7 +4378,7 @@
       <c r="B57" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="268"/>
+      <c r="C57" s="267"/>
       <c r="D57" s="146">
         <f>(2+13.5)*90</f>
         <v>1395</v>
@@ -4405,7 +4399,7 @@
       <c r="B58" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="268"/>
+      <c r="C58" s="267"/>
       <c r="D58" s="146">
         <v>3496.52</v>
       </c>
@@ -4425,7 +4419,7 @@
       <c r="B59" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="268"/>
+      <c r="C59" s="267"/>
       <c r="D59" s="146"/>
       <c r="E59" s="148"/>
       <c r="F59" s="52"/>
@@ -4443,7 +4437,7 @@
       <c r="B60" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="268"/>
+      <c r="C60" s="267"/>
       <c r="D60" s="146">
         <v>1646.3314638009499</v>
       </c>
@@ -4462,7 +4456,7 @@
       <c r="B61" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="268"/>
+      <c r="C61" s="267"/>
       <c r="D61" s="146">
         <v>150</v>
       </c>
@@ -4482,7 +4476,7 @@
       <c r="B62" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="268"/>
+      <c r="C62" s="267"/>
       <c r="D62" s="146">
         <v>90</v>
       </c>
@@ -4502,7 +4496,7 @@
       <c r="B63" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="268"/>
+      <c r="C63" s="267"/>
       <c r="D63" s="245">
         <f>110.94+22.05+26.4</f>
         <v>159.39000000000001</v>
@@ -4527,7 +4521,7 @@
       <c r="B64" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="268"/>
+      <c r="C64" s="267"/>
       <c r="D64" s="146">
         <v>250</v>
       </c>
@@ -4547,7 +4541,7 @@
       <c r="B65" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="268"/>
+      <c r="C65" s="267"/>
       <c r="D65" s="146"/>
       <c r="E65" s="103"/>
       <c r="F65" s="144"/>
@@ -4563,7 +4557,7 @@
     <row r="66" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="105"/>
-      <c r="C66" s="269"/>
+      <c r="C66" s="268"/>
       <c r="D66" s="106"/>
       <c r="E66" s="107"/>
       <c r="F66" s="101"/>
@@ -4581,7 +4575,7 @@
       <c r="B67" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="270"/>
+      <c r="C67" s="269"/>
       <c r="D67" s="253"/>
       <c r="E67" s="254"/>
       <c r="F67" s="255"/>
@@ -5388,13 +5382,13 @@
       <c r="C3" s="129"/>
       <c r="L3" s="1"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="277" t="s">
+      <c r="N3" s="276" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="277"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="276"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5826,13 +5820,13 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
       <c r="F3" s="151"/>
       <c r="G3" s="152"/>
       <c r="H3" s="150"/>
@@ -6064,13 +6058,13 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="280" t="s">
+      <c r="A13" s="279" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="280"/>
       <c r="H13" s="176"/>
       <c r="I13" s="173"/>
       <c r="P13" s="9"/>
@@ -6368,13 +6362,13 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="283"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="282"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="282"/>
       <c r="F27" s="183"/>
       <c r="G27" s="185"/>
       <c r="H27" s="182"/>
@@ -6673,13 +6667,13 @@
       <c r="R39" s="155"/>
     </row>
     <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="282" t="s">
+      <c r="A40" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="283"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="283"/>
-      <c r="E40" s="283"/>
+      <c r="B40" s="282"/>
+      <c r="C40" s="282"/>
+      <c r="D40" s="282"/>
+      <c r="E40" s="282"/>
       <c r="G40" s="185" t="s">
         <v>108</v>
       </c>
@@ -6794,13 +6788,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
+      <c r="B45" s="282"/>
+      <c r="C45" s="282"/>
+      <c r="D45" s="282"/>
+      <c r="E45" s="282"/>
       <c r="G45" s="185" t="s">
         <v>108</v>
       </c>
@@ -6938,13 +6932,13 @@
       <c r="R52" s="155"/>
     </row>
     <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="282" t="s">
+      <c r="A53" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="283"/>
-      <c r="C53" s="283"/>
-      <c r="D53" s="283"/>
-      <c r="E53" s="283"/>
+      <c r="B53" s="282"/>
+      <c r="C53" s="282"/>
+      <c r="D53" s="282"/>
+      <c r="E53" s="282"/>
       <c r="I53" s="173"/>
       <c r="O53" t="str">
         <f>A52</f>
@@ -7926,13 +7920,13 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="287" t="s">
+      <c r="A75" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="288"/>
-      <c r="C75" s="288"/>
-      <c r="D75" s="288"/>
-      <c r="E75" s="289"/>
+      <c r="B75" s="287"/>
+      <c r="C75" s="287"/>
+      <c r="D75" s="287"/>
+      <c r="E75" s="288"/>
       <c r="F75" s="175"/>
       <c r="G75" s="155"/>
       <c r="H75" s="176"/>
@@ -8665,13 +8659,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="287" t="s">
+      <c r="A98" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="288"/>
-      <c r="C98" s="288"/>
-      <c r="D98" s="288"/>
-      <c r="E98" s="289"/>
+      <c r="B98" s="287"/>
+      <c r="C98" s="287"/>
+      <c r="D98" s="287"/>
+      <c r="E98" s="288"/>
       <c r="F98" s="175"/>
       <c r="G98" s="155"/>
       <c r="H98" s="176"/>
@@ -8889,13 +8883,13 @@
       </c>
     </row>
     <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="284" t="s">
+      <c r="A105" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="285"/>
-      <c r="C105" s="285"/>
-      <c r="D105" s="285"/>
-      <c r="E105" s="286"/>
+      <c r="B105" s="284"/>
+      <c r="C105" s="284"/>
+      <c r="D105" s="284"/>
+      <c r="E105" s="285"/>
       <c r="F105" s="230" t="s">
         <v>101</v>
       </c>

--- a/data/Repair_matrix DF.xlsx
+++ b/data/Repair_matrix DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\twintern\Auto Purchase\AutoPurchase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77109753-9EE4-49CB-862B-275C24D10BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A53A5BF-9691-4784-82E9-831CBF944095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,10 +794,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Arm B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DM LIKA UPGRADE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -807,6 +803,9 @@
   </si>
   <si>
     <t>V-700144</t>
+  </si>
+  <si>
+    <t>Arm B</t>
   </si>
 </sst>
 </file>
@@ -3085,8 +3084,8 @@
   </sheetPr>
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3539,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="271" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D21" s="68">
         <f>'Calc.'!H42</f>
@@ -3565,7 +3564,7 @@
         <v>198</v>
       </c>
       <c r="C22" s="271" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="68">
         <f>'Calc.'!H47</f>
@@ -3716,7 +3715,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="271" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D29" s="68">
         <f>'Calc.'!I61</f>
@@ -3898,7 +3897,7 @@
         <v>151</v>
       </c>
       <c r="C36" s="273" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="68">
         <f>'Calc.'!I68</f>
@@ -4142,7 +4141,7 @@
         <v>202</v>
       </c>
       <c r="C46" s="272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D46" s="142">
         <f>'Calc.'!G108</f>
@@ -4228,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="271" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D50" s="68">
         <f>'Calc.'!I89</f>
